--- a/py.projects/ts1.xlsx
+++ b/py.projects/ts1.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ReadMe" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ts" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">Project Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proj1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Script ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Script Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_header_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Script Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test script will guide the testers to log-in and verify header text of the website landing page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
   <si>
     <t xml:space="preserve">step no.</t>
   </si>
@@ -37,6 +104,21 @@
     <t xml:space="preserve">param</t>
   </si>
   <si>
+    <t xml:space="preserve">Step Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed/Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">open</t>
   </si>
   <si>
@@ -46,10 +128,10 @@
     <t xml:space="preserve">edge</t>
   </si>
   <si>
-    <t xml:space="preserve">website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendkey</t>
+    <t xml:space="preserve">browser edge is launched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter</t>
   </si>
   <si>
     <t xml:space="preserve">browser_textbox</t>
@@ -58,10 +140,10 @@
     <t xml:space="preserve">user-name</t>
   </si>
   <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
+    <t xml:space="preserve">user-name is entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password is entered.</t>
   </si>
   <si>
     <t xml:space="preserve">click</t>
@@ -73,13 +155,16 @@
     <t xml:space="preserve">login-button</t>
   </si>
   <si>
+    <t xml:space="preserve">login-button is clicked and user is logged in.</t>
+  </si>
+  <si>
     <t xml:space="preserve">verify</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
     <t xml:space="preserve">header_container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text in header container is verified.</t>
   </si>
 </sst>
 </file>
@@ -89,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +196,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,8 +261,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,6 +295,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -177,121 +363,307 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1048576" activeCellId="0" sqref="B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">CONCATENATE(B2,"_",B3,"_",B4,"_",B6)</f>
+        <v>Req1_Scn1_TC1_Verify_header_text</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.saucedemo.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="AMJ1048576" activeCellId="0" sqref="AMJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="37.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="11" style="3" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f aca="false">CONCATENATE(B2," "," &lt;&lt;&lt;",E2,"&gt;&gt;&gt;"," in ",C2," ",D2,".")</f>
+        <v>open  &lt;&lt;&lt;website&gt;&gt;&gt; in browser edge.</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f aca="false">CONCATENATE(B3," "," &lt;&lt;&lt;",E3,"&gt;&gt;&gt;"," in ",C3," ",D3,".")</f>
+        <v>enter  &lt;&lt;&lt;username&gt;&gt;&gt; in browser_textbox user-name.</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f aca="false">CONCATENATE(B4," "," &lt;&lt;&lt;",E4,"&gt;&gt;&gt;"," in ",C4," ",D4,".")</f>
+        <v>enter  &lt;&lt;&lt;password&gt;&gt;&gt; in browser_textbox password.</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f aca="false">CONCATENATE(B5," "," &lt;&lt;&lt;",E5,"&gt;&gt;&gt;"," in ",C5," ",D5,".")</f>
+        <v>click  &lt;&lt;&lt;&gt;&gt;&gt; in browser_button login-button.</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f aca="false">CONCATENATE(B6," "," &lt;&lt;&lt;",E6,"&gt;&gt;&gt;"," in ",C6," ",D6,".")</f>
+        <v>verify  &lt;&lt;&lt;text&gt;&gt;&gt; in text header_container.</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
